--- a/Dataset/Typed Dataset/1(a) completed.xlsx
+++ b/Dataset/Typed Dataset/1(a) completed.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\PycharmProjects\Essay-Marking-Assistant\Dataset\Typed Dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC912E2-5BF9-4361-8647-DD46D3168DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Briefly explain when you would NOTuse non-linear encoding with PCM</t>
   </si>
@@ -48,9 +54,6 @@
     <t>When you want quantised levels to have equal spacing, if signals are not sampled at regular intervals and at a rate less than twice the highest signal frequency.</t>
   </si>
   <si>
-    <t>NO MARKS</t>
-  </si>
-  <si>
     <t>NLE uses a greater number of steps for signals with low amplitude and smaller number of steps for signals of high amplitude. When there is a lot of background noise or some distorted frequency,</t>
   </si>
   <si>
@@ -103,13 +106,16 @@
   </si>
   <si>
     <t>When the incoming signal has low amplitude as non-linear encoding uses higher quantization steps for lower amplitudes to reduce distortion. This will result in a poorly encoded signal that is not representative of the analog signal.</t>
+  </si>
+  <si>
+    <t>Not Answered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,32 +424,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="78.75" customHeight="1">
+      <c r="B1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -451,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -459,17 +468,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -477,7 +492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -485,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -493,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="90">
+    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -501,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -509,163 +524,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="2" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="2" t="s">
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="75">
-      <c r="A18" s="2" t="s">
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="90">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="2" t="s">
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="2" t="s">
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="2" t="s">
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="2" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="75">
+    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="60">
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="2" t="s">
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B31">
         <v>0</v>

--- a/Dataset/Typed Dataset/1(a) completed.xlsx
+++ b/Dataset/Typed Dataset/1(a) completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\PycharmProjects\Essay-Marking-Assistant\Dataset\Typed Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC912E2-5BF9-4361-8647-DD46D3168DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079C6050-4E00-43F7-8EAC-4EB80E551EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
-    <t>Briefly explain when you would NOTuse non-linear encoding with PCM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Non linear encoding introduces more quantizing steps for large amplitude signals and less steps for small amplitude. Therefore, non-linear encoding is useful for amplitudes which vary a lot as it can utilise the extra efficiency. Constant amplitudes need not apply. </t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Not Answered</t>
+  </si>
+  <si>
+    <t>Briefly explain when you would NOT use non-linear encoding with PCM</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="2" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>0</v>

--- a/Dataset/Typed Dataset/1(a) completed.xlsx
+++ b/Dataset/Typed Dataset/1(a) completed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\PycharmProjects\Essay-Marking-Assistant\Dataset\Typed Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079C6050-4E00-43F7-8EAC-4EB80E551EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F691E5E-D20E-4FAD-88F0-D242DEE2F900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>You would not use linear encoding for a signal with a large range of amplitudes as the lower amplitude values will become distorted.</t>
   </si>
   <si>
-    <t>When you want quantised levels to have equal spacing, if signals are not sampled at regular intervals and at a rate less than twice the highest signal frequency.</t>
-  </si>
-  <si>
     <t>NLE uses a greater number of steps for signals with low amplitude and smaller number of steps for signals of high amplitude. When there is a lot of background noise or some distorted frequency,</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Briefly explain when you would NOT use non-linear encoding with PCM</t>
+  </si>
+  <si>
+    <t>No Answer</t>
   </si>
 </sst>
 </file>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -529,10 +529,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,58 +558,58 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -620,52 +620,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -673,19 +676,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31">
         <v>0</v>
       </c>
     </row>
